--- a/Targets.xlsx
+++ b/Targets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\autum\source\repos\outlook-dotnet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C151C8-FCCF-40B3-9AB2-A3AC12CE19C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E30435-16D5-4599-A16C-ED7F8CE6704C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -238,8 +238,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -252,7 +254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -267,8 +269,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -278,7 +278,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -563,7 +562,7 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,19 +575,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="12" t="s">
@@ -604,17 +603,17 @@
       <c r="R1" s="14"/>
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="11" t="str">
+      <c r="C2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(J1,"&lt;"&amp;D1&amp;"&gt;",D2),"&lt;"&amp;E1&amp;"&gt;",E2),"&lt;"&amp;F1&amp;"&gt;",F2),"&lt;"&amp;G1&amp;"&gt;",G2),"&lt;"&amp;H1&amp;"&gt;",H2)</f>
         <v>Transcript</v>
       </c>
-      <c r="D2" s="11" t="str">
+      <c r="D2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(J3,"&lt;"&amp;E1&amp;"&gt;",E2),"&lt;"&amp;F1&amp;"&gt;",F2),"&lt;"&amp;G1&amp;"&gt;",G2),"&lt;"&amp;H1&amp;"&gt;",H2),"&lt;"&amp;I1&amp;"&gt;",I2)</f>
         <v>Hi Dan,
 Please find the file attached.
@@ -626,116 +625,116 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="3"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="5"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J4" s="4"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="8"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J5" s="4"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="8"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J6" s="4"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="8"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J7" s="4"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="8"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J8" s="4"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="8"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J9" s="4"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="8"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J10" s="4"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="8"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J11" s="4"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="8"/>
     </row>
     <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J12" s="7"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
